--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,101 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F8" s="3">
         <v>34000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>24100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>33800</v>
       </c>
-      <c r="G8" s="3">
-        <v>78400</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J8" s="3">
         <v>25400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -762,35 +769,41 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F9" s="3">
         <v>13100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>14000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>16400</v>
       </c>
-      <c r="G9" s="3">
-        <v>53900</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>69000</v>
+      </c>
+      <c r="J9" s="3">
         <v>16600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>22200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -800,35 +813,41 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F10" s="3">
         <v>20900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>10100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>17400</v>
       </c>
-      <c r="G10" s="3">
-        <v>24500</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="J10" s="3">
         <v>8800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,37 +963,43 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1291400</v>
+      </c>
+      <c r="F14" s="3">
         <v>9300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,37 +1007,43 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F15" s="3">
         <v>11700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>9100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>7700</v>
       </c>
-      <c r="G15" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J15" s="3">
         <v>5500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1322300</v>
+      </c>
+      <c r="F17" s="3">
         <v>40600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>29100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>29600</v>
       </c>
-      <c r="G17" s="3">
-        <v>86000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J17" s="3">
         <v>25200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>39700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1278500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-6600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,69 +1176,77 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1252200</v>
+      </c>
+      <c r="F21" s="3">
         <v>3500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>9800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1187,37 +1260,43 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1265500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-5900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>65400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J24" s="3">
         <v>-18900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1330900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J26" s="3">
         <v>19200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-24200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-363600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
         <v>19200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-24200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-363600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3">
         <v>19200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-24200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-363600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>600</v>
+      </c>
+      <c r="J35" s="3">
         <v>19200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-24200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>376900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>177400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>468000</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,37 +2049,43 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F43" s="3">
         <v>12900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>9100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>40500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1908,37 +2093,43 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F44" s="3">
         <v>15200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5900</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1946,139 +2137,163 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F45" s="3">
         <v>19300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F46" s="3">
         <v>50000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>394000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>226000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>468000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1129300</v>
+        <v>1336800</v>
       </c>
       <c r="E47" s="3">
-        <v>562100</v>
+        <v>1258000</v>
       </c>
       <c r="F47" s="3">
-        <v>244200</v>
+        <v>1094600</v>
       </c>
       <c r="G47" s="3">
+        <v>527400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>209400</v>
+      </c>
+      <c r="I47" s="3">
         <v>1389300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>382400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>380700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>379800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>379200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>378300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>377900</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1408300</v>
+        <v>208500</v>
       </c>
       <c r="E48" s="3">
-        <v>1414600</v>
+        <v>205800</v>
       </c>
       <c r="F48" s="3">
-        <v>1325000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+        <v>1443100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1449300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1359700</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2086,11 +2301,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,37 +2445,43 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F52" s="3">
         <v>74200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>74000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>72800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2250,8 +2489,14 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1588500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1500900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2661800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2444700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1868000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1857300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>382500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>381000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>380200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>379700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>379000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>379100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,37 +2657,43 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F58" s="3">
         <v>17600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>25300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>29000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2434,96 +2701,114 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F59" s="3">
         <v>38800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>45300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>72000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>98500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1200</v>
       </c>
       <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F60" s="3">
         <v>56400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>70600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>101000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>98500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1000</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
       </c>
       <c r="L60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>396000</v>
+      </c>
+      <c r="F61" s="3">
         <v>235000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2548,28 +2833,34 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>167600</v>
+      </c>
+      <c r="F62" s="3">
         <v>136500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>131400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>34400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>13200</v>
       </c>
       <c r="J62" s="3">
         <v>13200</v>
@@ -2583,11 +2874,17 @@
       <c r="M62" s="3">
         <v>13200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="O62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1518000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1853900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2217600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1995600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1640000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2071000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>14400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>14200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>14000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-402500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-392600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-212600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-213700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-700</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-353100</v>
+      </c>
+      <c r="F76" s="3">
         <v>444200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>449200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>228000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-213700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>365600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>366600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>366000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>365300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>364900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>364700</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-363600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>600</v>
+      </c>
+      <c r="J81" s="3">
         <v>19200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-24200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,37 +3626,39 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F83" s="3">
         <v>11700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>5700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="J83" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>36800</v>
+      </c>
+      <c r="F89" s="3">
         <v>17700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>10100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
-        <v>500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,37 +3952,39 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-47700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-94800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-164500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-188600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-617300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-415100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-282600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-175100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>155200</v>
+      </c>
+      <c r="F100" s="3">
         <v>225300</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
         <v>623800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>378700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-374300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>199500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-272500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>449900</v>
       </c>
-      <c r="H102" s="3">
-        <v>400</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>ALTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E8" s="3">
         <v>40800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>43800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>34000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24600</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -775,38 +779,41 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>10600</v>
+        <v>9300</v>
       </c>
       <c r="E9" s="3">
+        <v>10300</v>
+      </c>
+      <c r="F9" s="3">
         <v>12400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>14000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>16400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>69000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -819,38 +826,41 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>30200</v>
+        <v>22300</v>
       </c>
       <c r="E10" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F10" s="3">
         <v>31400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>20900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-42300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,28 +986,31 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>1291400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -998,11 +1018,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1013,40 +1033,43 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E15" s="3">
         <v>3900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>7700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8900</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E17" s="3">
         <v>22100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1322300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>40600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>24200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>25200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>39700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E18" s="3">
         <v>18700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1278500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,79 +1211,83 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>13300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>800</v>
       </c>
       <c r="N20" s="3">
         <v>800</v>
       </c>
       <c r="O20" s="3">
+        <v>800</v>
+      </c>
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1252200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1266,8 +1303,11 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1278,7 +1318,7 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
@@ -1287,19 +1327,19 @@
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1265500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-18900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1330900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-24200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-363600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-24200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E32" s="3">
         <v>45900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-13300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-800</v>
       </c>
       <c r="N32" s="3">
         <v>-800</v>
       </c>
       <c r="O32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-363600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-363600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
         <v>19300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>376900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>177400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>468000</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,29 +2145,32 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E43" s="3">
         <v>12800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>20700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>40500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2087,8 +2180,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2099,29 +2192,32 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5900</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2131,8 +2227,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2143,37 +2239,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2182,122 +2281,131 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E46" s="3">
         <v>37500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>50000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>394000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>226000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>468000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1408500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1336800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1258000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1094600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>527400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>209400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1389300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>382400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>380700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>379800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>379200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>378300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>377900</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E48" s="3">
         <v>208500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>205800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1443100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1449300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1359700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2307,8 +2415,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,29 +2568,32 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>74200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>72800</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2483,8 +2603,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1642200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1588500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2661800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2444700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1868000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1857300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>382500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>381000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>380200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>379700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>379000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>379100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,16 +2749,17 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2642,8 +2773,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,20 +2806,20 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>11800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>25300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2695,8 +2829,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2707,111 +2841,120 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E59" s="3">
         <v>12700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>38800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>98500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>33700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>70600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>101000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>98500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E61" s="3">
         <v>468000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>396000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>235000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2839,31 +2982,34 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E62" s="3">
         <v>232300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>167600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>136500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>131400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>13200</v>
       </c>
       <c r="K62" s="3">
         <v>13200</v>
@@ -2880,11 +3026,14 @@
       <c r="O62" s="3">
         <v>13200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1571900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1518000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1853900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2217600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1995600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1640000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2071000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-402700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-402500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-392600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-29000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-212600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-213700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E76" s="3">
         <v>70500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-353100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>444200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>449200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>228000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-213700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>365600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>366600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>366000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>365300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>364900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>364700</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-363600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E89" s="3">
         <v>51500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>36800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,29 +4174,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-47700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-94800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-164500</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -3986,8 +4207,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-188600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-617300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-415100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-282600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-175100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,38 +4567,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E100" s="3">
         <v>59400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>155200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>225300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>623800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4363,13 +4609,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>378700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E102" s="3">
         <v>13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-374300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>199500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-272500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>449900</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ALTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>31600</v>
+        <v>40200</v>
       </c>
       <c r="E8" s="3">
+        <v>73000</v>
+      </c>
+      <c r="F8" s="3">
         <v>40800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>43800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>34000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>33800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -782,41 +786,44 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="E9" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F9" s="3">
         <v>10300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>14000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>69000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,41 +836,44 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>22300</v>
+        <v>30300</v>
       </c>
       <c r="E10" s="3">
+        <v>52900</v>
+      </c>
+      <c r="F10" s="3">
         <v>30500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>20900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>10100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-42300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1006,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>1291400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>9300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1021,11 +1041,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1036,43 +1056,46 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F15" s="3">
         <v>3900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>7700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>5700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19900</v>
+        <v>21200</v>
       </c>
       <c r="E17" s="3">
+        <v>42500</v>
+      </c>
+      <c r="F17" s="3">
         <v>22100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1322300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>40600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>24200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>39700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11700</v>
+        <v>19000</v>
       </c>
       <c r="E18" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F18" s="3">
         <v>18700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1278500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,85 +1245,89 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>6300</v>
+        <v>10800</v>
       </c>
       <c r="E20" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-45900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>800</v>
       </c>
       <c r="O20" s="3">
         <v>800</v>
       </c>
       <c r="P20" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>22000</v>
+        <v>33700</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-23300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1252200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5800</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,22 +1343,25 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
@@ -1330,19 +1370,19 @@
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>500</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>17700</v>
+        <v>29300</v>
       </c>
       <c r="E23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1265500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,43 +1458,46 @@
         <v>-700</v>
       </c>
       <c r="F24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G24" s="3">
         <v>65400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-18900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17700</v>
+        <v>29300</v>
       </c>
       <c r="E26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-26800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1330900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>2300</v>
       </c>
       <c r="E27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-363600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-24200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-6300</v>
+        <v>-10800</v>
       </c>
       <c r="E32" s="3">
+        <v>39700</v>
+      </c>
+      <c r="F32" s="3">
         <v>45900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-800</v>
       </c>
       <c r="O32" s="3">
         <v>-800</v>
       </c>
       <c r="P32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>2300</v>
       </c>
       <c r="E33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-363600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>2300</v>
       </c>
       <c r="E35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-363600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>376900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>177400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>468000</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,32 +2238,35 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E43" s="3">
         <v>13600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>20700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>40500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2183,8 +2276,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2195,32 +2288,35 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5900</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2230,8 +2326,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2242,40 +2338,43 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2284,131 +2383,140 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E46" s="3">
         <v>20900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>50000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>394000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>226000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>468000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1524400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1408500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1336800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1258000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1094600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>527400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>209400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1389300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>382400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>380700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>379800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>379200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>378300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>377900</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E48" s="3">
         <v>207300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>208500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>205800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1443100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1449300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1359700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2418,8 +2526,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,32 +2688,35 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>74200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>72800</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,8 +2726,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1756400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1642200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1588500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1500900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2661800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2444700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1868000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1857300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>382500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>381000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>380200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>379700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>379000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>379100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,19 +2880,20 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2773,11 +2904,11 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2809,20 +2943,20 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>11800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>25300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2832,8 +2966,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2844,120 +2978,129 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>21900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>38800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>98500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E60" s="3">
         <v>12100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>33700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>70600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>101000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>98500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E61" s="3">
         <v>493000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>468000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>396000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>235000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2985,34 +3128,37 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E62" s="3">
         <v>243500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>232300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>167600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>136500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>131400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="K62" s="3">
-        <v>13200</v>
       </c>
       <c r="L62" s="3">
         <v>13200</v>
@@ -3029,11 +3175,14 @@
       <c r="P62" s="3">
         <v>13200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1571900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1518000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1853900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2217600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1995600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1640000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2071000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-400400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-402700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-402500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-392600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-29000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-212600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-213700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E76" s="3">
         <v>70300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-353100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>444200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>449200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>228000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-213700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>365600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>366600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>366000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>365300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>364900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>364700</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>2300</v>
       </c>
       <c r="E81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-363600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,43 +4025,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35300</v>
+        <v>50700</v>
       </c>
       <c r="E89" s="3">
+        <v>86800</v>
+      </c>
+      <c r="F89" s="3">
         <v>51500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>36800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,32 +4395,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7400</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-94800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-164500</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4210,8 +4431,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-77700</v>
+        <v>-126000</v>
       </c>
       <c r="E94" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-97600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-188600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-617300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-415100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-282600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-175100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,41 +4813,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>25000</v>
+        <v>75400</v>
       </c>
       <c r="E100" s="3">
+        <v>84400</v>
+      </c>
+      <c r="F100" s="3">
         <v>59400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>155200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>225300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>623800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4612,13 +4858,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>378700</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17400</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F102" s="3">
         <v>13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-374300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>199500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-272500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>449900</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>ALTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,121 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E8" s="3">
         <v>40200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>43800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>34000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>33800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -789,44 +792,47 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E9" s="3">
         <v>9900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>14000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>16400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,44 +845,47 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E10" s="3">
         <v>30300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>52900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>31400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>20900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>10100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-42300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,34 +1025,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>1291400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>9300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1044,11 +1063,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,37 +1090,37 @@
         <v>4000</v>
       </c>
       <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3">
         <v>8000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>13000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>7700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1322300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>40600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>39700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E18" s="3">
         <v>19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1278500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-6600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,91 +1278,95 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E20" s="3">
         <v>10800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-39700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>1100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>800</v>
       </c>
       <c r="P20" s="3">
         <v>800</v>
       </c>
       <c r="Q20" s="3">
+        <v>800</v>
+      </c>
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E21" s="3">
         <v>33700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1252200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,25 +1382,28 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
@@ -1373,19 +1412,19 @@
         <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E23" s="3">
         <v>29300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1265500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,49 +1500,52 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>-700</v>
       </c>
       <c r="G24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H24" s="3">
         <v>65400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-18900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E26" s="3">
         <v>29300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1330900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-363600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-24200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-49200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>39700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-800</v>
       </c>
       <c r="P32" s="3">
         <v>-800</v>
       </c>
       <c r="Q32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-363600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-363600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>376900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>468000</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,35 +2330,38 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E43" s="3">
         <v>13700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>20700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>40500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2279,8 +2371,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2291,35 +2383,38 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2329,8 +2424,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2341,43 +2436,46 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2386,140 +2484,149 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E46" s="3">
         <v>20400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>394000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>226000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>468000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1555200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1524400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1408500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1336800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1258000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1094600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>527400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>209400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1389300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>382400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>380700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>379800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>379200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>378300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>377900</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E48" s="3">
         <v>205300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>207300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>208500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>205800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1443100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1449300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1359700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2636,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,35 +2807,38 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>74200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>72800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2729,8 +2848,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1799600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1756400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1642200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1588500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2661800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2444700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1868000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1857300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>382500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>381000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>380200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>379700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>379000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>379100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,22 +3010,23 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2907,11 +3037,11 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2946,20 +3079,20 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>11800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>25300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3102,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -2981,129 +3114,138 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>21900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>38800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>45300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>98500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E60" s="3">
         <v>16500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>33700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>70600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>101000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>98500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E61" s="3">
         <v>580000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>493000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>468000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>396000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>235000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3131,37 +3273,40 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>208600</v>
+      </c>
+      <c r="E62" s="3">
         <v>247800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>243500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>167600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>136500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>131400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>13200</v>
       </c>
       <c r="M62" s="3">
         <v>13200</v>
@@ -3178,11 +3323,14 @@
       <c r="Q62" s="3">
         <v>13200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2046100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1683600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1571900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1518000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1853900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2217600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1995600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1640000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2071000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-391000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-400400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-402700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-402500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-392600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-29000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-212600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-213700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-246500</v>
+      </c>
+      <c r="E76" s="3">
         <v>72800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>70300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-353100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>444200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>449200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>228000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-213700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>365600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>366600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>366000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>365300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>364900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>364700</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-363600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,37 +4233,37 @@
         <v>4000</v>
       </c>
       <c r="E83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F83" s="3">
         <v>8000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E89" s="3">
         <v>50700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>86800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>51500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>17700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,35 +4615,36 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-35600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-94800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-164500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4434,8 +4654,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-126000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-175300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-97600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-188600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-617300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-415100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-282600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-175100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,44 +5058,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E100" s="3">
         <v>75400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>84400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>59400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>155200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>225300</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
         <v>623800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4861,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>378700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-374300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>199500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-272500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>449900</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>ALTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,128 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E8" s="3">
         <v>35300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73000</v>
       </c>
-      <c r="G8" s="3">
-        <v>40800</v>
-      </c>
       <c r="H8" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I8" s="3">
         <v>43800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>24100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24600</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -795,47 +799,50 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E9" s="3">
         <v>10100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20100</v>
       </c>
-      <c r="G9" s="3">
-        <v>10300</v>
-      </c>
       <c r="H9" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I9" s="3">
         <v>12400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>14000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,47 +855,50 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E10" s="3">
         <v>25200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>52900</v>
       </c>
-      <c r="G10" s="3">
-        <v>30500</v>
-      </c>
       <c r="H10" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I10" s="3">
         <v>31400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>20900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>10100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-42300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,37 +1045,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1291400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1066,11 +1086,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,37 +1116,37 @@
         <v>4000</v>
       </c>
       <c r="F15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="3">
         <v>8000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3900</v>
       </c>
-      <c r="H15" s="3">
-        <v>13000</v>
-      </c>
       <c r="I15" s="3">
-        <v>11700</v>
+        <v>12500</v>
       </c>
       <c r="J15" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K15" s="3">
         <v>9100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8900</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42500</v>
       </c>
-      <c r="G17" s="3">
-        <v>22100</v>
-      </c>
       <c r="H17" s="3">
+        <v>22200</v>
+      </c>
+      <c r="I17" s="3">
         <v>1322300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>39700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>12300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1278500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,97 +1312,101 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E20" s="3">
         <v>49200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-39700</v>
       </c>
-      <c r="G20" s="3">
-        <v>-45900</v>
-      </c>
       <c r="H20" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="I20" s="3">
         <v>13300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>800</v>
       </c>
       <c r="Q20" s="3">
         <v>800</v>
       </c>
       <c r="R20" s="3">
+        <v>800</v>
+      </c>
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E21" s="3">
         <v>65500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>33700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-23300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1252200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1385,28 +1422,31 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>500</v>
@@ -1415,19 +1455,19 @@
         <v>500</v>
       </c>
       <c r="L22" s="3">
+        <v>500</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>60300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-27500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1265500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,49 +1549,52 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>-700</v>
       </c>
       <c r="H24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I24" s="3">
         <v>65400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-18900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>60300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-26800</v>
-      </c>
       <c r="H26" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1330900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-24200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-363600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-24200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-49200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>39700</v>
       </c>
-      <c r="G32" s="3">
-        <v>45900</v>
-      </c>
       <c r="H32" s="3">
+        <v>44500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-13300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-800</v>
       </c>
       <c r="Q32" s="3">
         <v>-800</v>
       </c>
       <c r="R32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-363600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-24200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-363600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-24200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E41" s="3">
         <v>24200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>376900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>177400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>468000</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,38 +2423,41 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E43" s="3">
         <v>12900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>20700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2374,8 +2467,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2386,38 +2479,41 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E44" s="3">
         <v>3600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>15200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2427,8 +2523,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2439,46 +2535,49 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>19300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2487,149 +2586,158 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>76200</v>
+      </c>
+      <c r="E46" s="3">
         <v>42800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>394000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>226000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>468000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1566700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1555200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1524400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1408500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1336800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1258000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1094600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>527400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>209400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1389300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>382400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>380700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>379800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>379200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>378300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>377900</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E48" s="3">
         <v>195800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>205300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>207300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>208500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>205800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1443100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1449300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1359700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,8 +2747,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,38 +2927,41 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>74200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>72800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1842600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1799600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1756400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1642200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1588500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2661800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2444700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1868000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1857300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>382500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>381000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>380200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>379700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>379000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>379100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,25 +3141,26 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3040,11 +3171,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3082,20 +3216,20 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>11800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>17600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>25300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3105,8 +3239,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3117,138 +3251,147 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>38800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>45300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>98500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E60" s="3">
         <v>30000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>33700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>70600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>101000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>98500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E61" s="3">
         <v>624000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>580000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>493000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>468000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>396000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>235000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,40 +3419,43 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E62" s="3">
         <v>208600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>247800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>243500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>232300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>167600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>136500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>131400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>13200</v>
       </c>
       <c r="N62" s="3">
         <v>13200</v>
@@ -3326,11 +3472,14 @@
       <c r="R62" s="3">
         <v>13200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2173600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2046100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1683600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1571900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1518000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1853900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2217600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1995600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1640000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2071000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-369300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-391000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-400400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-402700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-402500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-392600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-29000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-212600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-213700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-331000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-246500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>70300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-353100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>444200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>449200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-213700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>365600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>366600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>366000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>365300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>364900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>364700</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-363600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-24200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,37 +4435,37 @@
         <v>4000</v>
       </c>
       <c r="F83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G83" s="3">
         <v>8000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E89" s="3">
         <v>26800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>50700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>86800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>51500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,38 +4836,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-47700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-94800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-164500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4657,8 +4878,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-126000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-175300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-97600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-188600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-617300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-415100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-282600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-175100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,13 +5082,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,47 +5304,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E100" s="3">
         <v>32400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>75400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>84400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>59400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>155200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>225300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>623800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>378700</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E102" s="3">
         <v>22200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-374300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>199500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-272500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>449900</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>ALTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,135 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E8" s="3">
         <v>34100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40200</v>
       </c>
-      <c r="G8" s="3">
-        <v>73000</v>
-      </c>
       <c r="H8" s="3">
+        <v>31600</v>
+      </c>
+      <c r="I8" s="3">
         <v>40900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>43800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>33800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>26700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24600</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -802,50 +806,53 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E9" s="3">
         <v>9400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9900</v>
       </c>
-      <c r="G9" s="3">
-        <v>20100</v>
-      </c>
       <c r="H9" s="3">
+        <v>29100</v>
+      </c>
+      <c r="I9" s="3">
         <v>21000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>16400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>16600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>22200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,50 +865,53 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E10" s="3">
         <v>24700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>30300</v>
       </c>
-      <c r="G10" s="3">
-        <v>52900</v>
-      </c>
       <c r="H10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I10" s="3">
         <v>19900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>31400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>20900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>17400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-42300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,20 +1065,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1069,19 +1089,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1291400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1089,11 +1109,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1119,37 +1142,37 @@
         <v>4000</v>
       </c>
       <c r="G15" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="H15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I15" s="3">
         <v>3900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>12500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8900</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E17" s="3">
         <v>21100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21200</v>
       </c>
-      <c r="G17" s="3">
-        <v>42500</v>
-      </c>
       <c r="H17" s="3">
+        <v>19900</v>
+      </c>
+      <c r="I17" s="3">
         <v>22200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1322300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>40600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>24200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>39700</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E18" s="3">
         <v>13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19000</v>
       </c>
-      <c r="G18" s="3">
-        <v>30500</v>
-      </c>
       <c r="H18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I18" s="3">
         <v>18700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1278500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
       </c>
       <c r="Q18" s="3">
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,103 +1346,107 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E20" s="3">
         <v>12100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>49200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-39700</v>
-      </c>
       <c r="H20" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-44500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>800</v>
       </c>
       <c r="R20" s="3">
         <v>800</v>
       </c>
       <c r="S20" s="3">
+        <v>800</v>
+      </c>
+      <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E21" s="3">
         <v>29100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>65500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>33700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-21900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1252200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,13 +1474,13 @@
         <v>2600</v>
       </c>
       <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
         <v>1200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>600</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
@@ -1449,7 +1489,7 @@
         <v>300</v>
       </c>
       <c r="J22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>500</v>
@@ -1458,19 +1498,19 @@
         <v>500</v>
       </c>
       <c r="M22" s="3">
+        <v>500</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E23" s="3">
         <v>22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>60300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-9800</v>
-      </c>
       <c r="H23" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1265500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1552,49 +1598,52 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
-        <v>-700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>65400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-18900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>300</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E26" s="3">
         <v>22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>60300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-9100</v>
-      </c>
       <c r="H26" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-25400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1330900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-24200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-363600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-24200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-49200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10800</v>
       </c>
-      <c r="G32" s="3">
-        <v>39700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I32" s="3">
         <v>44500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-800</v>
       </c>
       <c r="R32" s="3">
         <v>-800</v>
       </c>
       <c r="S32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-363600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-24200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-363600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-24200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E41" s="3">
         <v>51300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>376900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>468000</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,41 +2516,44 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E43" s="3">
         <v>13200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>20700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>40500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2470,8 +2563,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2482,41 +2575,44 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>3900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>15200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2526,8 +2622,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2538,49 +2634,52 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E45" s="3">
         <v>7800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2589,158 +2688,167 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>98200</v>
+      </c>
+      <c r="E46" s="3">
         <v>76200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>42800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>50000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>394000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>226000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>468000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1554400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1566700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1555200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1524400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1408500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1336800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1258000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1094600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>527400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>209400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1389300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>382400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>380700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>379800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>379200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>378300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>377900</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>190800</v>
+      </c>
+      <c r="E48" s="3">
         <v>193400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>195800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>205300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>207300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>208500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>205800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1443100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1449300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1359700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2750,8 +2858,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,41 +3047,44 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>74200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>72800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2974,8 +3094,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1853700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1842600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1799600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1756400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1642200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1588500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2661800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2444700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1868000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1857300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>382500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>381000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>380200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>379700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>379000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>379100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,19 +3282,19 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>18800</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3174,11 +3305,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3198,16 +3329,19 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3219,20 +3353,20 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>11800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>17600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>25300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3242,8 +3376,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3254,120 +3388,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E59" s="3">
         <v>21900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>38800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>98500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E60" s="3">
         <v>21900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>30000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>33700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>70600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>101000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>98500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,26 +3518,26 @@
         <v>657000</v>
       </c>
       <c r="E61" s="3">
+        <v>657000</v>
+      </c>
+      <c r="F61" s="3">
         <v>624000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>580000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>493000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>468000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>396000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>235000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,43 +3565,46 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E62" s="3">
         <v>227500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>208600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>247800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>243500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>232300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>167600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>136500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>131400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="N62" s="3">
-        <v>13200</v>
       </c>
       <c r="O62" s="3">
         <v>13200</v>
@@ -3475,11 +3621,14 @@
       <c r="S62" s="3">
         <v>13200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2359900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2173600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2046100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1683600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1571900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1518000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1853900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2217600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1995600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1640000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2071000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-506200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-369300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-391000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-402700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-402500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-392600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-29000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-212600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-213700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-506200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-331000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-246500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>70300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-353100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>444200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>449200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>228000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-213700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>365600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>366600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>366000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>365300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>364900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>364700</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-363600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-24200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,37 +4637,37 @@
         <v>4000</v>
       </c>
       <c r="G83" s="3">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="H83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57800</v>
+      </c>
+      <c r="E89" s="3">
         <v>43300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>50700</v>
       </c>
-      <c r="G89" s="3">
-        <v>86800</v>
-      </c>
       <c r="H89" s="3">
+        <v>35300</v>
+      </c>
+      <c r="I89" s="3">
         <v>51500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,41 +5057,42 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-26500</v>
-      </c>
       <c r="H91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-19100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-47700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-94800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-164500</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -4881,8 +5102,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-126000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-175300</v>
-      </c>
       <c r="H94" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-97600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-188600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-617300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-415100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-282600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-175100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,7 +5326,7 @@
         <v>-5600</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5550,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>75400</v>
       </c>
-      <c r="G100" s="3">
-        <v>84400</v>
-      </c>
       <c r="H100" s="3">
+        <v>25000</v>
+      </c>
+      <c r="I100" s="3">
         <v>59400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>155200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>225300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>623800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5604,16 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>378700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E102" s="3">
         <v>27100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>-4100</v>
-      </c>
       <c r="H102" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I102" s="3">
         <v>13300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-374300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>199500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-272500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>449900</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALTM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>ALTM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,142 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E8" s="3">
         <v>35600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>34100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40200</v>
       </c>
-      <c r="H8" s="3">
-        <v>31600</v>
-      </c>
       <c r="I8" s="3">
+        <v>73000</v>
+      </c>
+      <c r="J8" s="3">
         <v>40900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>33800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>26700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24600</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -809,53 +813,56 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E9" s="3">
         <v>10700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10100</v>
       </c>
-      <c r="G9" s="3">
-        <v>9900</v>
-      </c>
       <c r="H9" s="3">
-        <v>29100</v>
+        <v>18900</v>
       </c>
       <c r="I9" s="3">
+        <v>40200</v>
+      </c>
+      <c r="J9" s="3">
         <v>21000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>12400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>16400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>16600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>22200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,44 +887,44 @@
         <v>24900</v>
       </c>
       <c r="E10" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F10" s="3">
         <v>24700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25200</v>
       </c>
-      <c r="G10" s="3">
-        <v>30300</v>
-      </c>
       <c r="H10" s="3">
-        <v>2500</v>
+        <v>21300</v>
       </c>
       <c r="I10" s="3">
+        <v>32800</v>
+      </c>
+      <c r="J10" s="3">
         <v>19900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>31400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>17400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-42300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,14 +1097,14 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1092,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1291400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1112,11 +1132,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1127,13 +1147,16 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
@@ -1145,37 +1168,37 @@
         <v>4000</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J15" s="3">
         <v>3900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>5700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8900</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21200</v>
       </c>
-      <c r="H17" s="3">
-        <v>19900</v>
-      </c>
       <c r="I17" s="3">
+        <v>42500</v>
+      </c>
+      <c r="J17" s="3">
         <v>22200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1322300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>40600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>24200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>25200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E18" s="3">
         <v>13600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>12300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19000</v>
       </c>
-      <c r="H18" s="3">
-        <v>11700</v>
-      </c>
       <c r="I18" s="3">
+        <v>30500</v>
+      </c>
+      <c r="J18" s="3">
         <v>18700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1278500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,109 +1380,113 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E20" s="3">
         <v>62800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>49200</v>
       </c>
-      <c r="G20" s="3">
-        <v>10800</v>
-      </c>
       <c r="H20" s="3">
-        <v>4600</v>
+        <v>12600</v>
       </c>
       <c r="I20" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-44500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>800</v>
       </c>
       <c r="S20" s="3">
         <v>800</v>
       </c>
       <c r="T20" s="3">
+        <v>800</v>
+      </c>
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E21" s="3">
         <v>80500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>65500</v>
       </c>
-      <c r="G21" s="3">
-        <v>33700</v>
-      </c>
       <c r="H21" s="3">
-        <v>20400</v>
+        <v>35600</v>
       </c>
       <c r="I21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-21900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1252200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,34 +1502,37 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
         <v>2600</v>
       </c>
       <c r="F22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G22" s="3">
         <v>1200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>300</v>
-      </c>
       <c r="I22" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L22" s="3">
         <v>500</v>
@@ -1501,19 +1541,19 @@
         <v>500</v>
       </c>
       <c r="N22" s="3">
+        <v>500</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1524,67 +1564,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E23" s="3">
         <v>73800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60300</v>
       </c>
-      <c r="G23" s="3">
-        <v>29300</v>
-      </c>
       <c r="H23" s="3">
-        <v>16000</v>
+        <v>31200</v>
       </c>
       <c r="I23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1265500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1607,43 +1653,46 @@
         <v>-700</v>
       </c>
       <c r="J24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K24" s="3">
         <v>65400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-18900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>300</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E26" s="3">
         <v>73800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>60300</v>
       </c>
-      <c r="G26" s="3">
-        <v>29300</v>
-      </c>
       <c r="H26" s="3">
-        <v>16000</v>
+        <v>31200</v>
       </c>
       <c r="I26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-25400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1330900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>11700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9400</v>
       </c>
-      <c r="G27" s="3">
-        <v>2300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-1000</v>
+        <v>2900</v>
       </c>
       <c r="I27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-363600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-62800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-49200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-10800</v>
-      </c>
       <c r="H32" s="3">
-        <v>-4600</v>
+        <v>-12600</v>
       </c>
       <c r="I32" s="3">
+        <v>39900</v>
+      </c>
+      <c r="J32" s="3">
         <v>44500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-800</v>
       </c>
       <c r="S32" s="3">
         <v>-800</v>
       </c>
       <c r="T32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>11700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9400</v>
       </c>
-      <c r="G33" s="3">
-        <v>2300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-1000</v>
+        <v>2900</v>
       </c>
       <c r="I33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-363600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>11700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9400</v>
       </c>
-      <c r="G35" s="3">
-        <v>2300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-1000</v>
+        <v>2900</v>
       </c>
       <c r="I35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-363600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E41" s="3">
         <v>75100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>376900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>468000</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,44 +2609,47 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E43" s="3">
         <v>13700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>20700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2566,8 +2659,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2578,44 +2671,47 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>15200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2625,8 +2721,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,43 +2745,43 @@
         <v>6000</v>
       </c>
       <c r="E45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F45" s="3">
         <v>7800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2691,167 +2790,176 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E46" s="3">
         <v>98200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>76200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>42800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>50000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>394000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>226000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>468000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1537900</v>
+      </c>
+      <c r="E47" s="3">
         <v>1554400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1566700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1555200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1524400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1408500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1336800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1258000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1094600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>527400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>209400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1389300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>382400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>380700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>379800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>379200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>378300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>377900</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E48" s="3">
         <v>190800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>193400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>195800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>205300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>207300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>208500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>205800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1443100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1449300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1359700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2861,8 +2969,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,44 +3167,47 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E52" s="3">
         <v>10300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>74200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>74000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>72800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3097,8 +3217,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1865900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1853700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1842600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1799600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1756400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1642200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1588500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1500900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2661800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2444700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1868000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1857300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>382500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>381000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>380200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>379700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>379000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>379100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3285,19 +3416,19 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>18800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3308,11 +3439,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3343,8 +3477,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3356,20 +3490,20 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3379,8 +3513,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3391,126 +3525,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E59" s="3">
         <v>25100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>21900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>38800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>98500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E60" s="3">
         <v>25100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>30000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>16500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>33700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>70600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>101000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>98500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3521,26 +3664,26 @@
         <v>657000</v>
       </c>
       <c r="F61" s="3">
+        <v>657000</v>
+      </c>
+      <c r="G61" s="3">
         <v>624000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>580000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>493000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>468000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>396000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>235000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3568,46 +3711,49 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>193700</v>
+      </c>
+      <c r="E62" s="3">
         <v>197500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>208600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>247800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>243500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>232300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>167600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>136500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>131400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1972500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>13200</v>
       </c>
       <c r="P62" s="3">
         <v>13200</v>
@@ -3624,11 +3770,14 @@
       <c r="T62" s="3">
         <v>13200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>13200</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2350100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2359900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2173600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2046100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1683600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1571900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1518000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1853900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2217600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1995600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1640000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2071000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-484100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-506200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-369300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-391000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-402700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-402500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-392600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-29000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-212600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-213700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-700</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-484100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-506200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-331000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-246500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>70300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>70500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-353100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>444200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>449200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>228000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-213700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>365600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>366600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>366000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>365300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>364900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>364700</v>
       </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>11700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9400</v>
       </c>
-      <c r="G81" s="3">
-        <v>2300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-1000</v>
+        <v>2900</v>
       </c>
       <c r="I81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-363600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,13 +4820,14 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E83" s="3">
         <v>4000</v>
@@ -4640,37 +4839,37 @@
         <v>4000</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I83" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>57300</v>
+      </c>
+      <c r="E89" s="3">
         <v>57800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>50700</v>
       </c>
-      <c r="H89" s="3">
-        <v>35300</v>
-      </c>
       <c r="I89" s="3">
+        <v>86800</v>
+      </c>
+      <c r="J89" s="3">
         <v>51500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,44 +5278,45 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-7400</v>
-      </c>
       <c r="I91" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-19100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-47700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-94800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-164500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5105,8 +5326,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-126000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-77700</v>
-      </c>
       <c r="I94" s="3">
+        <v>-175300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-97600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-188600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-617300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-415100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-282600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-175100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5329,7 +5563,7 @@
         <v>-5600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-5600</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +5796,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,44 +5808,44 @@
         <v>-35900</v>
       </c>
       <c r="E100" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-2900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>75400</v>
       </c>
-      <c r="H100" s="3">
-        <v>25000</v>
-      </c>
       <c r="I100" s="3">
+        <v>84400</v>
+      </c>
+      <c r="J100" s="3">
         <v>59400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>155200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>225300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
         <v>623800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5853,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>378700</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E102" s="3">
         <v>23800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>27100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-17400</v>
-      </c>
       <c r="I102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="J102" s="3">
         <v>13300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-374300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>199500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-272500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>449900</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
